--- a/src/attributions/attributions_ig_traj_179.xlsx
+++ b/src/attributions/attributions_ig_traj_179.xlsx
@@ -1004,25 +1004,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.12504586505251</v>
+        <v>-0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00224497964313436</v>
+        <v>-0.107670151431414</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.2053876115891933</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.03552277622398656</v>
+        <v>-0.000870470479885202</v>
       </c>
       <c r="F2" t="n">
         <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>-0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1377228171844916</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.003103130618972635</v>
+        <v>-0.01825145604069086</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.2064948814758124</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.01050575702319681</v>
+        <v>0.00208025141448778</v>
       </c>
       <c r="O2" t="n">
         <v>-0</v>
@@ -1055,22 +1055,22 @@
         <v>-0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.04538349535149679</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.002700387860962461</v>
+        <v>-0.09778338212392844</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>0.01432430740601758</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.03087689993282006</v>
+        <v>-0.04174952113749071</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -1085,46 +1085,46 @@
         <v>-0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.03709627512277499</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.03095854890250292</v>
+        <v>-0.07844340024108128</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0</v>
+        <v>-0.01123724989979894</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.02633010450099422</v>
+        <v>0.00467995902030148</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.03315623187527885</v>
+        <v>-0</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.01382288582447931</v>
+        <v>-0.03477317437924476</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>0.02975591359928845</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.03796595579628253</v>
+        <v>0.06894031625633901</v>
       </c>
       <c r="AP2" t="n">
         <v>-0</v>
@@ -1133,28 +1133,28 @@
         <v>-0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS2" t="n">
         <v>-0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.05491200968299138</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.004574029380523347</v>
+        <v>-0.1504158949591624</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0</v>
+        <v>0.06762809990804736</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.1008554012403508</v>
+        <v>0.01316411438484101</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ2" t="n">
         <v>-0</v>
@@ -1166,46 +1166,46 @@
         <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.0583833678809728</v>
+        <v>-0</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.005520533792670439</v>
+        <v>-0.03736677967854636</v>
       </c>
       <c r="BE2" t="n">
         <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0</v>
+        <v>0.07026386262018187</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.01821828031475993</v>
+        <v>0.02677008819260617</v>
       </c>
       <c r="BH2" t="n">
         <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK2" t="n">
         <v>-0</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.02404930455733027</v>
+        <v>0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.002691980320207971</v>
+        <v>0.01906614199068762</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>0</v>
+        <v>-0.05327664047297926</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.0232039107000311</v>
+        <v>-0.06915173979540963</v>
       </c>
       <c r="BQ2" t="n">
         <v>0</v>
@@ -1220,52 +1220,52 @@
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.04697485929464622</v>
+        <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.004640764791898541</v>
+        <v>-0.01804737642947697</v>
       </c>
       <c r="BW2" t="n">
         <v>-0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0</v>
+        <v>0.01512898727912453</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.01393167735052478</v>
+        <v>-0.005352203034577101</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA2" t="n">
         <v>-0</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC2" t="n">
         <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.01400656919534764</v>
+        <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>2.158345137947652e-05</v>
+        <v>0.0336355770062513</v>
       </c>
       <c r="CF2" t="n">
         <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0</v>
+        <v>-0.03569317361011079</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.02704185119017045</v>
+        <v>0.0251507005628732</v>
       </c>
       <c r="CI2" t="n">
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK2" t="n">
         <v>0</v>
@@ -1274,19 +1274,19 @@
         <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.002309701764089964</v>
+        <v>-0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.01873168238459649</v>
+        <v>-0.01586600892987506</v>
       </c>
       <c r="CO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP2" t="n">
-        <v>0</v>
+        <v>0.02594067695371425</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.04116967595128557</v>
+        <v>0.05198710927025178</v>
       </c>
       <c r="CR2" t="n">
         <v>-0</v>
@@ -1295,31 +1295,31 @@
         <v>0</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.010313677968043</v>
+        <v>-0</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.006730971230533405</v>
+        <v>0.04516854268119422</v>
       </c>
       <c r="CX2" t="n">
         <v>-0</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0</v>
+        <v>-0.03815737946181457</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.02602904270445577</v>
+        <v>0.01954564062428951</v>
       </c>
       <c r="DA2" t="n">
         <v>-0</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC2" t="n">
         <v>-0</v>
@@ -1328,49 +1328,49 @@
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.01455776058001202</v>
+        <v>-0</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.03679739653423497</v>
+        <v>0.04358123142453846</v>
       </c>
       <c r="DG2" t="n">
         <v>-0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>0.01717012150273894</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.03840878566193243</v>
+        <v>0.04988333764285281</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM2" t="n">
         <v>-0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.01864215106629723</v>
+        <v>0</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.02364051853056764</v>
+        <v>-0.02121619411584265</v>
       </c>
       <c r="DP2" t="n">
         <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0</v>
+        <v>0.03359901195050785</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.03475854099923595</v>
+        <v>-0.01385797544263802</v>
       </c>
       <c r="DS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT2" t="n">
         <v>0</v>
@@ -1382,22 +1382,22 @@
         <v>0</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.001915955221553185</v>
+        <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.005760904824263626</v>
+        <v>-0.05212903656296591</v>
       </c>
       <c r="DY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0</v>
+        <v>-0.004971154324998677</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.01581438869950373</v>
+        <v>-0.02718932500684638</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC2" t="n">
         <v>-0</v>
@@ -1409,19 +1409,19 @@
         <v>-0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.04739880965216701</v>
+        <v>-0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.005175780542448916</v>
+        <v>0.05015491900709527</v>
       </c>
       <c r="EH2" t="n">
         <v>0</v>
       </c>
       <c r="EI2" t="n">
-        <v>0</v>
+        <v>0.07613886383889099</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.002106324318454543</v>
+        <v>-0.0199689068547195</v>
       </c>
       <c r="EK2" t="n">
         <v>-0</v>
@@ -1436,76 +1436,76 @@
         <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.01446257366075459</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.04238946004349312</v>
+        <v>0.04747992163333337</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>-0.03421357883596667</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.003010826341741058</v>
+        <v>0.04056784176355664</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW2" t="n">
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.01900737083108214</v>
+        <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.005393819297405299</v>
+        <v>0.047632734695192</v>
       </c>
       <c r="EZ2" t="n">
         <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0</v>
+        <v>-0.03127982317017986</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.03121971668942459</v>
+        <v>0.02441504420193668</v>
       </c>
       <c r="FC2" t="n">
         <v>0</v>
       </c>
       <c r="FD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE2" t="n">
         <v>0</v>
       </c>
       <c r="FF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.004605207771120914</v>
+        <v>-0</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.01944672620603791</v>
+        <v>-0.0002063141115742818</v>
       </c>
       <c r="FI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0</v>
+        <v>-0.01377775761390556</v>
       </c>
       <c r="FK2" t="n">
-        <v>-0.00195915358799078</v>
+        <v>-0.001886070509032845</v>
       </c>
       <c r="FL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM2" t="n">
         <v>0</v>
@@ -1517,52 +1517,52 @@
         <v>-0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.05464971058445494</v>
+        <v>-0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0.01211374089629631</v>
+        <v>-0.01316388935840617</v>
       </c>
       <c r="FR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS2" t="n">
-        <v>0</v>
+        <v>-0.0009316850821103231</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.01761228356365745</v>
+        <v>0.0192548302470746</v>
       </c>
       <c r="FU2" t="n">
         <v>0</v>
       </c>
       <c r="FV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX2" t="n">
         <v>-0</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.06427426095282271</v>
+        <v>0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.01861677174003104</v>
+        <v>-0.03444598377532641</v>
       </c>
       <c r="GA2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0</v>
+        <v>0.04121121055052257</v>
       </c>
       <c r="GC2" t="n">
         <v>-0</v>
       </c>
       <c r="GD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF2" t="n">
         <v>-0</v>
